--- a/data/bibliography.xlsx
+++ b/data/bibliography.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhanf\Desktop\quarto_website\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhanf\Documents\quarto_website\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D403769-67A2-4421-BDD9-1A32EB56C103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8916"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bibliography" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bibliography!$K$1:$K$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bibliography!$K$1:$K$64</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="462">
   <si>
     <t>bibtype</t>
   </si>
@@ -1393,12 +1394,27 @@
   </si>
   <si>
     <t>Non-immunization associated with increased risk of sudden unexpected death in infancy: A national case-control study</t>
+  </si>
+  <si>
+    <t>A near real-time interactive dashboard for monitoring and anticipating demands in emergency care in the Île-de-France region (France)</t>
+  </si>
+  <si>
+    <t>Journal of the American Medical Informatics Association</t>
+  </si>
+  <si>
+    <t>hanf_2024</t>
+  </si>
+  <si>
+    <t>10.1093/jamia/ocae151</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jamia/article/31/10/2369/7690161</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2212,35 +2228,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6328125" customWidth="1"/>
+    <col min="6" max="6" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" customWidth="1"/>
-    <col min="12" max="12" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="150.21875" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="61.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" customWidth="1"/>
+    <col min="12" max="12" width="255.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="150.1796875" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="61.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>437</v>
       </c>
@@ -2299,340 +2315,340 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2">
+        <v>2024</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>449</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>457</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>458</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>453</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>454</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>2022</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>390</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
         <v>443</v>
       </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
         <v>456</v>
       </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
         <v>228</v>
       </c>
-      <c r="S2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="S3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>16</v>
-      </c>
-      <c r="E3">
-        <v>2020</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>388</v>
-      </c>
-      <c r="H3">
-        <v>14</v>
-      </c>
-      <c r="I3">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>439</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>389</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" t="s">
-        <v>346</v>
-      </c>
-      <c r="S3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
       </c>
       <c r="E4">
         <v>2020</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H4">
-        <v>226</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L4" t="s">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>389</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>346</v>
       </c>
       <c r="S4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2020</v>
       </c>
       <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>390</v>
+      </c>
+      <c r="H5">
+        <v>226</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>440</v>
+      </c>
+      <c r="L5" t="s">
+        <v>391</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>2020</v>
+      </c>
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>392</v>
       </c>
-      <c r="H5">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
         <v>441</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L6" t="s">
         <v>32</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M6" t="s">
         <v>393</v>
       </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
         <v>332</v>
       </c>
-      <c r="S5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="S6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>35</v>
-      </c>
-      <c r="E6">
-        <v>2019</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>394</v>
-      </c>
-      <c r="H6">
-        <v>14</v>
-      </c>
-      <c r="I6">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" t="s">
-        <v>442</v>
-      </c>
-      <c r="L6" t="s">
-        <v>367</v>
-      </c>
-      <c r="M6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1</v>
-      </c>
-      <c r="R6" t="s">
-        <v>333</v>
-      </c>
-      <c r="S6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
       </c>
       <c r="E7">
         <v>2019</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H7">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
@@ -2641,181 +2657,181 @@
         <v>1</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>46</v>
+        <v>333</v>
       </c>
       <c r="S7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>2019</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
         <v>390</v>
       </c>
       <c r="H8">
+        <v>221</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" t="s">
+        <v>440</v>
+      </c>
+      <c r="L8" t="s">
+        <v>359</v>
+      </c>
+      <c r="M8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9">
+        <v>2019</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>390</v>
+      </c>
+      <c r="H9">
         <v>80</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>2</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J9" t="s">
         <v>50</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K9" t="s">
         <v>443</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L9" t="s">
         <v>364</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M9" t="s">
         <v>395</v>
       </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>1</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
         <v>347</v>
       </c>
-      <c r="S8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="S9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>52</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>53</v>
-      </c>
-      <c r="E9">
-        <v>2018</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>388</v>
-      </c>
-      <c r="H9">
-        <v>48</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" t="s">
-        <v>442</v>
-      </c>
-      <c r="L9" t="s">
-        <v>368</v>
-      </c>
-      <c r="M9" t="s">
-        <v>425</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" t="s">
-        <v>55</v>
-      </c>
-      <c r="S9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
       </c>
       <c r="E10">
         <v>2018</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="I10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s">
         <v>442</v>
       </c>
       <c r="L10" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="M10" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
@@ -2824,24 +2840,24 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>333</v>
+        <v>55</v>
       </c>
       <c r="S10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E11">
         <v>2018</v>
@@ -2859,22 +2875,22 @@
         <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L11" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="M11" t="s">
-        <v>66</v>
+        <v>396</v>
       </c>
       <c r="N11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>0</v>
@@ -2886,48 +2902,48 @@
         <v>333</v>
       </c>
       <c r="S11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E12">
         <v>2018</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>338</v>
+        <v>394</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K12" t="s">
         <v>440</v>
       </c>
       <c r="L12" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="M12" t="s">
-        <v>398</v>
+        <v>66</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
@@ -2939,54 +2955,54 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E13">
         <v>2018</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="H13">
-        <v>196</v>
-      </c>
-      <c r="I13" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K13" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L13" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="M13" t="s">
-        <v>76</v>
+        <v>398</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
@@ -2998,178 +3014,178 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>27</v>
+        <v>334</v>
       </c>
       <c r="S13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E14">
         <v>2018</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
         <v>390</v>
       </c>
       <c r="H14">
+        <v>196</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>444</v>
+      </c>
+      <c r="L14" t="s">
+        <v>370</v>
+      </c>
+      <c r="M14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15">
+        <v>2018</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
+        <v>390</v>
+      </c>
+      <c r="H15">
         <v>25</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J15" t="s">
         <v>81</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K15" t="s">
         <v>440</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L15" t="s">
         <v>399</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M15" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>1</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
         <v>342</v>
       </c>
-      <c r="S14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="S15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>83</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
         <v>84</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>85</v>
-      </c>
-      <c r="E15">
-        <v>2017</v>
-      </c>
-      <c r="F15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" t="s">
-        <v>388</v>
-      </c>
-      <c r="H15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" t="s">
-        <v>442</v>
-      </c>
-      <c r="L15" t="s">
-        <v>361</v>
-      </c>
-      <c r="M15" t="s">
-        <v>400</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
-      <c r="R15" t="s">
-        <v>87</v>
-      </c>
-      <c r="S15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" t="s">
-        <v>90</v>
       </c>
       <c r="E16">
         <v>2017</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>338</v>
-      </c>
-      <c r="H16">
-        <v>7</v>
-      </c>
-      <c r="I16">
-        <v>11</v>
+        <v>388</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L16" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="M16" t="s">
-        <v>92</v>
+        <v>400</v>
       </c>
       <c r="N16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>0</v>
@@ -3178,51 +3194,51 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>334</v>
+        <v>87</v>
       </c>
       <c r="S16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E17">
         <v>2017</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="H17">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="L17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M17" t="s">
-        <v>401</v>
+        <v>92</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
@@ -3234,54 +3250,54 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>55</v>
+        <v>334</v>
       </c>
       <c r="S17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E18">
         <v>2017</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H18">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I18">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K18" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L18" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="M18" t="s">
-        <v>102</v>
+        <v>401</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
@@ -3296,405 +3312,405 @@
         <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="S18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E19">
         <v>2017</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>390</v>
       </c>
       <c r="H19">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K19" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L19" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="M19" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="N19" s="1">
         <v>0</v>
       </c>
       <c r="O19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E20">
         <v>2017</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="G20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20">
+        <v>32</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" t="s">
+        <v>443</v>
+      </c>
+      <c r="L20" t="s">
+        <v>351</v>
+      </c>
+      <c r="M20" t="s">
+        <v>110</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>111</v>
+      </c>
+      <c r="S20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21">
+        <v>2017</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
         <v>402</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>112</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>2</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J21" t="s">
         <v>115</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K21" t="s">
         <v>446</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L21" t="s">
         <v>372</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M21" t="s">
         <v>116</v>
       </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
-        <v>1</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>0</v>
-      </c>
-      <c r="R20" t="s">
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
         <v>117</v>
       </c>
-      <c r="S20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="S21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>118</v>
       </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
         <v>119</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>120</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>2016</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>43</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>403</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>28</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>4</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J22" t="s">
         <v>121</v>
-      </c>
-      <c r="K21" t="s">
-        <v>440</v>
-      </c>
-      <c r="L21" t="s">
-        <v>362</v>
-      </c>
-      <c r="M21" t="s">
-        <v>404</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>1</v>
-      </c>
-      <c r="R21" t="s">
-        <v>348</v>
-      </c>
-      <c r="S21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22">
-        <v>2017</v>
-      </c>
-      <c r="F22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" t="s">
-        <v>394</v>
-      </c>
-      <c r="H22">
-        <v>12</v>
-      </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-      <c r="J22" t="s">
-        <v>126</v>
       </c>
       <c r="K22" t="s">
         <v>440</v>
       </c>
       <c r="L22" t="s">
+        <v>362</v>
+      </c>
+      <c r="M22" t="s">
+        <v>404</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s">
+        <v>348</v>
+      </c>
+      <c r="S22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23">
+        <v>2017</v>
+      </c>
+      <c r="F23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" t="s">
+        <v>394</v>
+      </c>
+      <c r="H23">
+        <v>12</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>126</v>
+      </c>
+      <c r="K23" t="s">
+        <v>440</v>
+      </c>
+      <c r="L23" t="s">
         <v>373</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M23" t="s">
         <v>127</v>
       </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
-      <c r="O22" s="1">
-        <v>1</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>0</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
         <v>333</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>129</v>
       </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
         <v>130</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>131</v>
-      </c>
-      <c r="E23">
-        <v>2016</v>
-      </c>
-      <c r="F23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23">
-        <v>123</v>
-      </c>
-      <c r="I23">
-        <v>12</v>
-      </c>
-      <c r="J23" t="s">
-        <v>132</v>
-      </c>
-      <c r="K23" t="s">
-        <v>445</v>
-      </c>
-      <c r="L23" t="s">
-        <v>133</v>
-      </c>
-      <c r="M23" t="s">
-        <v>134</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1">
-        <v>1</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0</v>
-      </c>
-      <c r="R23" t="s">
-        <v>349</v>
-      </c>
-      <c r="S23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" t="s">
-        <v>137</v>
       </c>
       <c r="E24">
         <v>2016</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>392</v>
+        <v>108</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J24" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="K24" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L24" t="s">
-        <v>405</v>
+        <v>133</v>
       </c>
       <c r="M24" t="s">
-        <v>406</v>
+        <v>134</v>
       </c>
       <c r="N24" s="1">
         <v>0</v>
       </c>
       <c r="O24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="1">
         <v>0</v>
       </c>
       <c r="Q24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="S24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E25">
         <v>2016</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H25">
-        <v>204</v>
-      </c>
-      <c r="I25" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L25" t="s">
-        <v>142</v>
+        <v>405</v>
       </c>
       <c r="M25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N25" s="1">
         <v>0</v>
@@ -3703,57 +3719,57 @@
         <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="1">
         <v>1</v>
       </c>
       <c r="R25" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="S25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E26">
         <v>2016</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G26" t="s">
         <v>390</v>
       </c>
       <c r="H26">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I26" t="s">
         <v>20</v>
       </c>
       <c r="J26" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K26" t="s">
         <v>446</v>
       </c>
       <c r="L26" t="s">
-        <v>408</v>
+        <v>142</v>
       </c>
       <c r="M26" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N26" s="1">
         <v>0</v>
@@ -3765,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="Q26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="s">
         <v>343</v>
@@ -3774,343 +3790,343 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27">
+        <v>2016</v>
+      </c>
+      <c r="F27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" t="s">
+        <v>390</v>
+      </c>
+      <c r="H27">
+        <v>202</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>146</v>
+      </c>
+      <c r="K27" t="s">
+        <v>446</v>
+      </c>
+      <c r="L27" t="s">
+        <v>408</v>
+      </c>
+      <c r="M27" t="s">
+        <v>409</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" t="s">
+        <v>343</v>
+      </c>
+      <c r="S27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>147</v>
       </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
         <v>148</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>149</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>2015</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>86</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>338</v>
       </c>
-      <c r="H27">
+      <c r="H28">
         <v>101</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <v>3</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J28" t="s">
         <v>150</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K28" t="s">
         <v>444</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L28" t="s">
         <v>374</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M28" t="s">
         <v>430</v>
       </c>
-      <c r="N27" s="1">
-        <v>0</v>
-      </c>
-      <c r="O27" s="1">
-        <v>1</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>0</v>
-      </c>
-      <c r="R27" t="s">
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
         <v>151</v>
       </c>
-      <c r="S27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="S28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>152</v>
       </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
         <v>153</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>154</v>
-      </c>
-      <c r="E28">
-        <v>2016</v>
-      </c>
-      <c r="F28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" t="s">
-        <v>392</v>
-      </c>
-      <c r="H28">
-        <v>16</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" t="s">
-        <v>441</v>
-      </c>
-      <c r="L28" t="s">
-        <v>410</v>
-      </c>
-      <c r="M28" t="s">
-        <v>155</v>
-      </c>
-      <c r="N28" s="1">
-        <v>1</v>
-      </c>
-      <c r="O28" s="1">
-        <v>1</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>0</v>
-      </c>
-      <c r="R28" t="s">
-        <v>336</v>
-      </c>
-      <c r="S28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D29" t="s">
-        <v>158</v>
       </c>
       <c r="E29">
         <v>2016</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="G29" t="s">
+        <v>392</v>
+      </c>
+      <c r="H29">
+        <v>16</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s">
+        <v>441</v>
+      </c>
+      <c r="L29" t="s">
+        <v>410</v>
+      </c>
+      <c r="M29" t="s">
+        <v>155</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" t="s">
+        <v>336</v>
+      </c>
+      <c r="S29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30">
+        <v>2016</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
         <v>402</v>
       </c>
-      <c r="H29">
+      <c r="H30">
         <v>110</v>
       </c>
-      <c r="I29">
+      <c r="I30">
         <v>2</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J30" t="s">
         <v>159</v>
-      </c>
-      <c r="K29" t="s">
-        <v>446</v>
-      </c>
-      <c r="L29" t="s">
-        <v>375</v>
-      </c>
-      <c r="M29" t="s">
-        <v>160</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0</v>
-      </c>
-      <c r="O29" s="1">
-        <v>1</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>0</v>
-      </c>
-      <c r="R29" t="s">
-        <v>117</v>
-      </c>
-      <c r="S29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" t="s">
-        <v>162</v>
-      </c>
-      <c r="D30" t="s">
-        <v>163</v>
-      </c>
-      <c r="E30">
-        <v>2015</v>
-      </c>
-      <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>390</v>
-      </c>
-      <c r="H30">
-        <v>194</v>
-      </c>
-      <c r="I30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" t="s">
-        <v>164</v>
       </c>
       <c r="K30" t="s">
         <v>446</v>
       </c>
       <c r="L30" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="M30" t="s">
-        <v>426</v>
+        <v>160</v>
       </c>
       <c r="N30" s="1">
         <v>0</v>
       </c>
       <c r="O30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="1">
         <v>0</v>
       </c>
       <c r="R30" t="s">
-        <v>343</v>
+        <v>117</v>
       </c>
       <c r="S30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D31" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E31">
         <v>2015</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G31" t="s">
         <v>390</v>
       </c>
       <c r="H31">
-        <v>22</v>
-      </c>
-      <c r="I31">
-        <v>4</v>
+        <v>194</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
       </c>
       <c r="J31" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K31" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L31" t="s">
-        <v>169</v>
+        <v>385</v>
       </c>
       <c r="M31" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N31" s="1">
         <v>0</v>
       </c>
       <c r="O31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="1">
         <v>0</v>
       </c>
       <c r="R31" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D32" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E32">
         <v>2015</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>173</v>
+        <v>390</v>
       </c>
       <c r="H32">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J32" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K32" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L32" t="s">
-        <v>376</v>
+        <v>169</v>
       </c>
       <c r="M32" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="N32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="1">
         <v>1</v>
@@ -4122,24 +4138,24 @@
         <v>0</v>
       </c>
       <c r="R32" t="s">
-        <v>175</v>
+        <v>342</v>
       </c>
       <c r="S32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E33">
         <v>2015</v>
@@ -4148,28 +4164,28 @@
         <v>80</v>
       </c>
       <c r="G33" t="s">
-        <v>390</v>
+        <v>173</v>
       </c>
       <c r="H33">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I33">
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K33" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L33" t="s">
-        <v>180</v>
+        <v>376</v>
       </c>
       <c r="M33" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="N33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="1">
         <v>1</v>
@@ -4181,346 +4197,346 @@
         <v>0</v>
       </c>
       <c r="R33" t="s">
-        <v>342</v>
+        <v>175</v>
       </c>
       <c r="S33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E34">
         <v>2015</v>
       </c>
       <c r="F34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H34">
+        <v>22</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>179</v>
+      </c>
+      <c r="K34" t="s">
+        <v>447</v>
+      </c>
+      <c r="L34" t="s">
+        <v>180</v>
+      </c>
+      <c r="M34" t="s">
+        <v>431</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" t="s">
+        <v>342</v>
+      </c>
+      <c r="S34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35">
+        <v>2015</v>
+      </c>
+      <c r="F35" t="s">
         <v>43</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G35" t="s">
         <v>394</v>
       </c>
-      <c r="H34">
+      <c r="H35">
         <v>10</v>
       </c>
-      <c r="I34">
+      <c r="I35">
         <v>7</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J35" t="s">
         <v>184</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K35" t="s">
         <v>440</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L35" t="s">
         <v>377</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M35" t="s">
         <v>185</v>
       </c>
-      <c r="N34" s="1">
-        <v>0</v>
-      </c>
-      <c r="O34" s="1">
-        <v>1</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>0</v>
-      </c>
-      <c r="R34" t="s">
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" t="s">
         <v>333</v>
       </c>
-      <c r="S34" t="s">
+      <c r="S35" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>187</v>
       </c>
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
         <v>188</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>189</v>
-      </c>
-      <c r="E35">
-        <v>2014</v>
-      </c>
-      <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
-        <v>411</v>
-      </c>
-      <c r="H35">
-        <v>35</v>
-      </c>
-      <c r="I35">
-        <v>11</v>
-      </c>
-      <c r="J35" t="s">
-        <v>190</v>
-      </c>
-      <c r="K35" t="s">
-        <v>448</v>
-      </c>
-      <c r="L35" t="s">
-        <v>366</v>
-      </c>
-      <c r="M35" t="s">
-        <v>191</v>
-      </c>
-      <c r="N35" s="1">
-        <v>1</v>
-      </c>
-      <c r="O35" s="1">
-        <v>0</v>
-      </c>
-      <c r="P35" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>1</v>
-      </c>
-      <c r="R35" t="s">
-        <v>344</v>
-      </c>
-      <c r="S35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>192</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" t="s">
-        <v>193</v>
-      </c>
-      <c r="D36" t="s">
-        <v>194</v>
       </c>
       <c r="E36">
         <v>2014</v>
       </c>
       <c r="F36" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="G36" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="H36">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I36">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J36" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K36" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L36" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="M36" t="s">
-        <v>412</v>
+        <v>191</v>
       </c>
       <c r="N36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="1">
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="1">
         <v>1</v>
       </c>
       <c r="R36" t="s">
-        <v>196</v>
+        <v>344</v>
       </c>
       <c r="S36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D37" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E37">
         <v>2014</v>
       </c>
       <c r="F37" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" t="s">
+        <v>392</v>
+      </c>
+      <c r="H37">
+        <v>23</v>
+      </c>
+      <c r="I37">
+        <v>7</v>
+      </c>
+      <c r="J37" t="s">
+        <v>195</v>
+      </c>
+      <c r="K37" t="s">
+        <v>445</v>
+      </c>
+      <c r="L37" t="s">
+        <v>386</v>
+      </c>
+      <c r="M37" t="s">
+        <v>412</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s">
+        <v>196</v>
+      </c>
+      <c r="S37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>197</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" t="s">
+        <v>199</v>
+      </c>
+      <c r="E38">
+        <v>2014</v>
+      </c>
+      <c r="F38" t="s">
         <v>107</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G38" t="s">
         <v>394</v>
       </c>
-      <c r="H37">
+      <c r="H38">
         <v>8</v>
       </c>
-      <c r="I37">
+      <c r="I38">
         <v>8</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J38" t="s">
         <v>200</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K38" t="s">
         <v>446</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L38" t="s">
         <v>201</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M38" t="s">
         <v>413</v>
       </c>
-      <c r="N37" s="1">
-        <v>1</v>
-      </c>
-      <c r="O37" s="1">
-        <v>0</v>
-      </c>
-      <c r="P37" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>0</v>
-      </c>
-      <c r="R37" t="s">
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" t="s">
         <v>337</v>
       </c>
-      <c r="S37" t="s">
+      <c r="S38" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>203</v>
       </c>
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
         <v>204</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>205</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>2013</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" t="s">
         <v>100</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>108</v>
       </c>
-      <c r="H38">
+      <c r="H39">
         <v>19</v>
-      </c>
-      <c r="I38">
-        <v>2</v>
-      </c>
-      <c r="J38" t="s">
-        <v>206</v>
-      </c>
-      <c r="K38" t="s">
-        <v>449</v>
-      </c>
-      <c r="L38" t="s">
-        <v>207</v>
-      </c>
-      <c r="M38" t="s">
-        <v>208</v>
-      </c>
-      <c r="N38" s="1">
-        <v>1</v>
-      </c>
-      <c r="O38" s="1">
-        <v>0</v>
-      </c>
-      <c r="P38" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>1</v>
-      </c>
-      <c r="R38" t="s">
-        <v>345</v>
-      </c>
-      <c r="S38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" t="s">
-        <v>210</v>
-      </c>
-      <c r="D39" t="s">
-        <v>211</v>
-      </c>
-      <c r="E39">
-        <v>2014</v>
-      </c>
-      <c r="F39" t="s">
-        <v>80</v>
-      </c>
-      <c r="G39" t="s">
-        <v>212</v>
-      </c>
-      <c r="H39">
-        <v>90</v>
       </c>
       <c r="I39">
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="K39" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="L39" t="s">
-        <v>352</v>
+        <v>207</v>
       </c>
       <c r="M39" t="s">
-        <v>427</v>
+        <v>208</v>
       </c>
       <c r="N39" s="1">
         <v>1</v>
@@ -4532,113 +4548,113 @@
         <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" t="s">
-        <v>214</v>
+        <v>345</v>
       </c>
       <c r="S39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D40" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E40">
         <v>2014</v>
       </c>
       <c r="F40" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" t="s">
+        <v>212</v>
+      </c>
+      <c r="H40">
+        <v>90</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40" t="s">
+        <v>213</v>
+      </c>
+      <c r="K40" t="s">
+        <v>442</v>
+      </c>
+      <c r="L40" t="s">
+        <v>352</v>
+      </c>
+      <c r="M40" t="s">
+        <v>427</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" t="s">
+        <v>214</v>
+      </c>
+      <c r="S40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>215</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" t="s">
+        <v>217</v>
+      </c>
+      <c r="E41">
+        <v>2014</v>
+      </c>
+      <c r="F41" t="s">
         <v>218</v>
-      </c>
-      <c r="G40" t="s">
-        <v>390</v>
-      </c>
-      <c r="H40">
-        <v>21</v>
-      </c>
-      <c r="I40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" t="s">
-        <v>219</v>
-      </c>
-      <c r="K40" t="s">
-        <v>449</v>
-      </c>
-      <c r="L40" t="s">
-        <v>363</v>
-      </c>
-      <c r="M40" t="s">
-        <v>220</v>
-      </c>
-      <c r="N40" s="1">
-        <v>1</v>
-      </c>
-      <c r="O40" s="1">
-        <v>0</v>
-      </c>
-      <c r="P40" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>1</v>
-      </c>
-      <c r="R40" t="s">
-        <v>221</v>
-      </c>
-      <c r="S40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>222</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" t="s">
-        <v>223</v>
-      </c>
-      <c r="D41" t="s">
-        <v>224</v>
-      </c>
-      <c r="E41">
-        <v>2013</v>
-      </c>
-      <c r="F41" t="s">
-        <v>100</v>
       </c>
       <c r="G41" t="s">
         <v>390</v>
       </c>
       <c r="H41">
-        <v>31</v>
-      </c>
-      <c r="I41">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="I41" t="s">
+        <v>20</v>
       </c>
       <c r="J41" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K41" t="s">
         <v>449</v>
       </c>
       <c r="L41" t="s">
-        <v>226</v>
+        <v>363</v>
       </c>
       <c r="M41" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="N41" s="1">
         <v>1</v>
@@ -4653,57 +4669,57 @@
         <v>1</v>
       </c>
       <c r="R41" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="S41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D42" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E42">
         <v>2013</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="G42" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="H42">
-        <v>347</v>
-      </c>
-      <c r="I42" t="s">
-        <v>232</v>
+        <v>31</v>
+      </c>
+      <c r="I42">
+        <v>49</v>
       </c>
       <c r="J42" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K42" t="s">
         <v>449</v>
       </c>
       <c r="L42" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="M42" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="N42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" s="1">
         <v>0</v>
@@ -4712,83 +4728,83 @@
         <v>1</v>
       </c>
       <c r="R42" t="s">
-        <v>338</v>
+        <v>228</v>
       </c>
       <c r="S42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D43" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E43">
         <v>2013</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G43" t="s">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="H43">
-        <v>89</v>
-      </c>
-      <c r="I43">
-        <v>3</v>
+        <v>347</v>
+      </c>
+      <c r="I43" t="s">
+        <v>232</v>
       </c>
       <c r="J43" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K43" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L43" t="s">
-        <v>378</v>
+        <v>234</v>
       </c>
       <c r="M43" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="1">
         <v>0</v>
       </c>
       <c r="Q43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" t="s">
-        <v>214</v>
+        <v>338</v>
       </c>
       <c r="S43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D44" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E44">
         <v>2013</v>
@@ -4797,116 +4813,116 @@
         <v>59</v>
       </c>
       <c r="G44" t="s">
+        <v>212</v>
+      </c>
+      <c r="H44">
+        <v>89</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44" t="s">
+        <v>239</v>
+      </c>
+      <c r="K44" t="s">
+        <v>447</v>
+      </c>
+      <c r="L44" t="s">
+        <v>378</v>
+      </c>
+      <c r="M44" t="s">
+        <v>240</v>
+      </c>
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+      <c r="R44" t="s">
+        <v>214</v>
+      </c>
+      <c r="S44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>242</v>
+      </c>
+      <c r="D45" t="s">
+        <v>243</v>
+      </c>
+      <c r="E45">
+        <v>2013</v>
+      </c>
+      <c r="F45" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" t="s">
         <v>394</v>
       </c>
-      <c r="H44">
+      <c r="H45">
         <v>7</v>
       </c>
-      <c r="I44">
+      <c r="I45">
         <v>9</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J45" t="s">
         <v>244</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K45" t="s">
         <v>446</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L45" t="s">
         <v>387</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M45" t="s">
         <v>245</v>
       </c>
-      <c r="N44" s="1">
-        <v>1</v>
-      </c>
-      <c r="O44" s="1">
-        <v>0</v>
-      </c>
-      <c r="P44" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>0</v>
-      </c>
-      <c r="R44" t="s">
+      <c r="N45" s="1">
+        <v>1</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" t="s">
         <v>337</v>
       </c>
-      <c r="S44" t="s">
+      <c r="S45" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>247</v>
       </c>
-      <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
         <v>248</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>249</v>
-      </c>
-      <c r="E45">
-        <v>2012</v>
-      </c>
-      <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>414</v>
-      </c>
-      <c r="H45">
-        <v>3</v>
-      </c>
-      <c r="I45">
-        <v>8</v>
-      </c>
-      <c r="J45" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" t="s">
-        <v>449</v>
-      </c>
-      <c r="L45" t="s">
-        <v>250</v>
-      </c>
-      <c r="M45" t="s">
-        <v>251</v>
-      </c>
-      <c r="N45" s="1">
-        <v>1</v>
-      </c>
-      <c r="O45" s="1">
-        <v>0</v>
-      </c>
-      <c r="P45" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>0</v>
-      </c>
-      <c r="R45" t="s">
-        <v>350</v>
-      </c>
-      <c r="S45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>252</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" t="s">
-        <v>253</v>
-      </c>
-      <c r="D46" t="s">
-        <v>254</v>
       </c>
       <c r="E46">
         <v>2012</v>
@@ -4921,7 +4937,7 @@
         <v>3</v>
       </c>
       <c r="I46">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J46" t="s">
         <v>20</v>
@@ -4933,7 +4949,7 @@
         <v>250</v>
       </c>
       <c r="M46" t="s">
-        <v>415</v>
+        <v>251</v>
       </c>
       <c r="N46" s="1">
         <v>1</v>
@@ -4945,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" t="s">
         <v>350</v>
@@ -4954,45 +4970,45 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D47" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E47">
         <v>2012</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="H47">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J47" t="s">
         <v>20</v>
       </c>
       <c r="K47" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="L47" t="s">
-        <v>358</v>
+        <v>250</v>
       </c>
       <c r="M47" t="s">
-        <v>258</v>
+        <v>415</v>
       </c>
       <c r="N47" s="1">
         <v>1</v>
@@ -5004,296 +5020,296 @@
         <v>0</v>
       </c>
       <c r="Q47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" t="s">
-        <v>259</v>
+        <v>350</v>
       </c>
       <c r="S47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D48" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E48">
         <v>2012</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G48" t="s">
+        <v>392</v>
+      </c>
+      <c r="H48">
+        <v>11</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" t="s">
+        <v>442</v>
+      </c>
+      <c r="L48" t="s">
+        <v>358</v>
+      </c>
+      <c r="M48" t="s">
+        <v>258</v>
+      </c>
+      <c r="N48" s="1">
+        <v>1</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" t="s">
+        <v>259</v>
+      </c>
+      <c r="S48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>260</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>261</v>
+      </c>
+      <c r="D49" t="s">
+        <v>262</v>
+      </c>
+      <c r="E49">
+        <v>2012</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
         <v>414</v>
       </c>
-      <c r="H48">
+      <c r="H49">
         <v>3</v>
       </c>
-      <c r="I48">
+      <c r="I49">
         <v>9</v>
       </c>
-      <c r="J48" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" t="s">
+      <c r="J49" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" t="s">
         <v>443</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L49" t="s">
         <v>434</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M49" t="s">
         <v>416</v>
       </c>
-      <c r="N48" s="1">
-        <v>1</v>
-      </c>
-      <c r="O48" s="1">
-        <v>0</v>
-      </c>
-      <c r="P48" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="1">
-        <v>0</v>
-      </c>
-      <c r="R48" t="s">
+      <c r="N49" s="1">
+        <v>1</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+      <c r="R49" t="s">
         <v>350</v>
       </c>
-      <c r="S48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="S49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>263</v>
       </c>
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
         <v>264</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>265</v>
       </c>
-      <c r="E49">
+      <c r="E50">
         <v>2011</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" t="s">
         <v>43</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G50" t="s">
         <v>417</v>
       </c>
-      <c r="H49">
+      <c r="H50">
         <v>24</v>
       </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
         <v>266</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K50" t="s">
         <v>442</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L50" t="s">
         <v>267</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M50" t="s">
         <v>432</v>
       </c>
-      <c r="N49" s="1">
-        <v>1</v>
-      </c>
-      <c r="O49" s="1">
-        <v>0</v>
-      </c>
-      <c r="P49" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="1">
-        <v>0</v>
-      </c>
-      <c r="R49" t="s">
+      <c r="N50" s="1">
+        <v>1</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0</v>
+      </c>
+      <c r="P50" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+      <c r="R50" t="s">
         <v>339</v>
       </c>
-      <c r="S49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="S50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>268</v>
       </c>
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
         <v>269</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>270</v>
       </c>
-      <c r="E50">
+      <c r="E51">
         <v>2012</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F51" t="s">
         <v>107</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G51" t="s">
         <v>418</v>
       </c>
-      <c r="H50">
+      <c r="H51">
         <v>40</v>
       </c>
-      <c r="I50">
+      <c r="I51">
         <v>3</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J51" t="s">
         <v>271</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K51" t="s">
         <v>449</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L51" t="s">
         <v>379</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M51" t="s">
         <v>428</v>
       </c>
-      <c r="N50" s="1">
-        <v>1</v>
-      </c>
-      <c r="O50" s="1">
-        <v>0</v>
-      </c>
-      <c r="P50" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="1">
-        <v>0</v>
-      </c>
-      <c r="R50" t="s">
+      <c r="N51" s="1">
+        <v>1</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0</v>
+      </c>
+      <c r="R51" t="s">
         <v>272</v>
       </c>
-      <c r="S50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="S51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>273</v>
       </c>
-      <c r="B51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
         <v>274</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>275</v>
-      </c>
-      <c r="E51">
-        <v>2011</v>
-      </c>
-      <c r="F51" t="s">
-        <v>80</v>
-      </c>
-      <c r="G51" t="s">
-        <v>212</v>
-      </c>
-      <c r="H51">
-        <v>84</v>
-      </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
-      <c r="J51" t="s">
-        <v>276</v>
-      </c>
-      <c r="K51" t="s">
-        <v>445</v>
-      </c>
-      <c r="L51" t="s">
-        <v>380</v>
-      </c>
-      <c r="M51" t="s">
-        <v>419</v>
-      </c>
-      <c r="N51" s="1">
-        <v>1</v>
-      </c>
-      <c r="O51" s="1">
-        <v>0</v>
-      </c>
-      <c r="P51" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>0</v>
-      </c>
-      <c r="R51" t="s">
-        <v>214</v>
-      </c>
-      <c r="S51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>277</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" t="s">
-        <v>278</v>
-      </c>
-      <c r="D52" t="s">
-        <v>279</v>
       </c>
       <c r="E52">
         <v>2011</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="H52">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="I52">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K52" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L52" t="s">
-        <v>281</v>
+        <v>380</v>
       </c>
       <c r="M52" t="s">
-        <v>282</v>
+        <v>419</v>
       </c>
       <c r="N52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" s="1">
         <v>0</v>
@@ -5302,54 +5318,54 @@
         <v>0</v>
       </c>
       <c r="R52" t="s">
-        <v>340</v>
+        <v>214</v>
       </c>
       <c r="S52" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D53" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E53">
         <v>2011</v>
       </c>
       <c r="F53" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H53">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J53" t="s">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="K53" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="L53" t="s">
-        <v>353</v>
+        <v>281</v>
       </c>
       <c r="M53" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="N53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" s="1">
         <v>1</v>
@@ -5361,30 +5377,30 @@
         <v>0</v>
       </c>
       <c r="R53" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
       <c r="S53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D54" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E54">
         <v>2011</v>
       </c>
       <c r="F54" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="G54" t="s">
         <v>392</v>
@@ -5402,16 +5418,16 @@
         <v>442</v>
       </c>
       <c r="L54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M54" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N54" s="1">
         <v>1</v>
       </c>
       <c r="O54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" s="1">
         <v>0</v>
@@ -5426,18 +5442,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D55" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E55">
         <v>2011</v>
@@ -5446,25 +5462,25 @@
         <v>80</v>
       </c>
       <c r="G55" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="H55">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>295</v>
+        <v>20</v>
       </c>
       <c r="K55" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="L55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M55" t="s">
-        <v>420</v>
+        <v>291</v>
       </c>
       <c r="N55" s="1">
         <v>1</v>
@@ -5479,51 +5495,51 @@
         <v>0</v>
       </c>
       <c r="R55" t="s">
-        <v>339</v>
+        <v>259</v>
       </c>
       <c r="S55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D56" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E56">
         <v>2011</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s">
-        <v>212</v>
+        <v>417</v>
       </c>
       <c r="H56">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="I56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K56" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="L56" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="M56" t="s">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="N56" s="1">
         <v>1</v>
@@ -5538,110 +5554,110 @@
         <v>0</v>
       </c>
       <c r="R56" t="s">
-        <v>214</v>
+        <v>339</v>
       </c>
       <c r="S56" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E57">
         <v>2011</v>
       </c>
       <c r="F57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>212</v>
+      </c>
+      <c r="H57">
+        <v>84</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57" t="s">
+        <v>299</v>
+      </c>
+      <c r="K57" t="s">
+        <v>443</v>
+      </c>
+      <c r="L57" t="s">
+        <v>381</v>
+      </c>
+      <c r="M57" t="s">
+        <v>300</v>
+      </c>
+      <c r="N57" s="1">
+        <v>1</v>
+      </c>
+      <c r="O57" s="1">
+        <v>0</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>0</v>
+      </c>
+      <c r="R57" t="s">
+        <v>214</v>
+      </c>
+      <c r="S57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>301</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>302</v>
+      </c>
+      <c r="D58" t="s">
+        <v>303</v>
+      </c>
+      <c r="E58">
+        <v>2011</v>
+      </c>
+      <c r="F58" t="s">
         <v>31</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G58" t="s">
         <v>392</v>
       </c>
-      <c r="H57">
+      <c r="H58">
         <v>10</v>
       </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>20</v>
-      </c>
-      <c r="K57" t="s">
-        <v>449</v>
-      </c>
-      <c r="L57" t="s">
-        <v>304</v>
-      </c>
-      <c r="M57" t="s">
-        <v>433</v>
-      </c>
-      <c r="N57" s="1">
-        <v>1</v>
-      </c>
-      <c r="O57" s="1">
-        <v>0</v>
-      </c>
-      <c r="P57" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="1">
-        <v>0</v>
-      </c>
-      <c r="R57" t="s">
-        <v>259</v>
-      </c>
-      <c r="S57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>305</v>
-      </c>
-      <c r="B58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" t="s">
-        <v>306</v>
-      </c>
-      <c r="D58" t="s">
-        <v>307</v>
-      </c>
-      <c r="E58">
-        <v>2010</v>
-      </c>
-      <c r="F58" t="s">
-        <v>43</v>
-      </c>
-      <c r="G58" t="s">
-        <v>173</v>
-      </c>
-      <c r="H58">
-        <v>24</v>
-      </c>
       <c r="I58">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c r="K58" t="s">
         <v>449</v>
       </c>
       <c r="L58" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="M58" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="N58" s="1">
         <v>1</v>
@@ -5656,54 +5672,54 @@
         <v>0</v>
       </c>
       <c r="R58" t="s">
-        <v>341</v>
+        <v>259</v>
       </c>
       <c r="S58" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D59" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E59">
         <v>2010</v>
       </c>
       <c r="F59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G59" t="s">
+        <v>173</v>
+      </c>
+      <c r="H59">
         <v>24</v>
       </c>
-      <c r="G59" t="s">
-        <v>390</v>
-      </c>
-      <c r="H59">
-        <v>145</v>
-      </c>
       <c r="I59">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J59" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K59" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L59" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="M59" t="s">
-        <v>314</v>
+        <v>421</v>
       </c>
       <c r="N59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" s="1">
         <v>0</v>
@@ -5712,57 +5728,57 @@
         <v>0</v>
       </c>
       <c r="Q59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="S59" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D60" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E60">
         <v>2010</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G60" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="H60">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="I60">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K60" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L60" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="M60" t="s">
-        <v>422</v>
+        <v>314</v>
       </c>
       <c r="N60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" s="1">
         <v>0</v>
@@ -5771,197 +5787,256 @@
         <v>0</v>
       </c>
       <c r="Q60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="S60" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D61" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E61">
         <v>2010</v>
       </c>
       <c r="F61" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61" t="s">
+        <v>417</v>
+      </c>
+      <c r="H61">
+        <v>22</v>
+      </c>
+      <c r="I61">
+        <v>9</v>
+      </c>
+      <c r="J61" t="s">
+        <v>319</v>
+      </c>
+      <c r="K61" t="s">
+        <v>444</v>
+      </c>
+      <c r="L61" t="s">
+        <v>382</v>
+      </c>
+      <c r="M61" t="s">
+        <v>422</v>
+      </c>
+      <c r="N61" s="1">
+        <v>1</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0</v>
+      </c>
+      <c r="P61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>0</v>
+      </c>
+      <c r="R61" t="s">
+        <v>339</v>
+      </c>
+      <c r="S61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>320</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>321</v>
+      </c>
+      <c r="D62" t="s">
+        <v>322</v>
+      </c>
+      <c r="E62">
+        <v>2010</v>
+      </c>
+      <c r="F62" t="s">
         <v>17</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G62" t="s">
         <v>403</v>
       </c>
-      <c r="H61">
+      <c r="H62">
         <v>21</v>
       </c>
-      <c r="I61">
+      <c r="I62">
         <v>5</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J62" t="s">
         <v>323</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K62" t="s">
         <v>445</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L62" t="s">
         <v>383</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M62" t="s">
         <v>423</v>
       </c>
-      <c r="N61" s="1">
-        <v>1</v>
-      </c>
-      <c r="O61" s="1">
-        <v>0</v>
-      </c>
-      <c r="P61" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="1">
-        <v>0</v>
-      </c>
-      <c r="R61" t="s">
+      <c r="N62" s="1">
+        <v>1</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0</v>
+      </c>
+      <c r="P62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>0</v>
+      </c>
+      <c r="R62" t="s">
         <v>348</v>
       </c>
-      <c r="S61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="S62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>324</v>
       </c>
-      <c r="B62" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
         <v>325</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>326</v>
-      </c>
-      <c r="E62">
-        <v>2009</v>
-      </c>
-      <c r="F62" t="s">
-        <v>86</v>
-      </c>
-      <c r="G62" t="s">
-        <v>173</v>
-      </c>
-      <c r="H62">
-        <v>23</v>
-      </c>
-      <c r="I62">
-        <v>16</v>
-      </c>
-      <c r="J62" t="s">
-        <v>327</v>
-      </c>
-      <c r="K62" t="s">
-        <v>446</v>
-      </c>
-      <c r="L62" t="s">
-        <v>384</v>
-      </c>
-      <c r="M62" t="s">
-        <v>424</v>
-      </c>
-      <c r="N62" s="1">
-        <v>1</v>
-      </c>
-      <c r="O62" s="1">
-        <v>0</v>
-      </c>
-      <c r="P62" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="1">
-        <v>0</v>
-      </c>
-      <c r="R62" t="s">
-        <v>341</v>
-      </c>
-      <c r="S62" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>328</v>
-      </c>
-      <c r="B63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" t="s">
-        <v>329</v>
-      </c>
-      <c r="D63" t="s">
-        <v>330</v>
       </c>
       <c r="E63">
         <v>2009</v>
       </c>
       <c r="F63" t="s">
+        <v>86</v>
+      </c>
+      <c r="G63" t="s">
+        <v>173</v>
+      </c>
+      <c r="H63">
+        <v>23</v>
+      </c>
+      <c r="I63">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>327</v>
+      </c>
+      <c r="K63" t="s">
+        <v>446</v>
+      </c>
+      <c r="L63" t="s">
+        <v>384</v>
+      </c>
+      <c r="M63" t="s">
+        <v>424</v>
+      </c>
+      <c r="N63" s="1">
+        <v>1</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
+      <c r="P63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>0</v>
+      </c>
+      <c r="R63" t="s">
+        <v>341</v>
+      </c>
+      <c r="S63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>328</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>329</v>
+      </c>
+      <c r="D64" t="s">
+        <v>330</v>
+      </c>
+      <c r="E64">
+        <v>2009</v>
+      </c>
+      <c r="F64" t="s">
         <v>100</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G64" t="s">
         <v>392</v>
       </c>
-      <c r="H63">
+      <c r="H64">
         <v>8</v>
       </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63" t="s">
-        <v>20</v>
-      </c>
-      <c r="K63" t="s">
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" t="s">
         <v>449</v>
       </c>
-      <c r="L63" t="s">
+      <c r="L64" t="s">
         <v>357</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M64" t="s">
         <v>331</v>
       </c>
-      <c r="N63" s="1">
-        <v>1</v>
-      </c>
-      <c r="O63" s="1">
-        <v>0</v>
-      </c>
-      <c r="P63" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>1</v>
-      </c>
-      <c r="R63" t="s">
+      <c r="N64" s="1">
+        <v>1</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0</v>
+      </c>
+      <c r="P64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>1</v>
+      </c>
+      <c r="R64" t="s">
         <v>259</v>
       </c>
-      <c r="S63" t="s">
+      <c r="S64" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="K1:K63"/>
+  <autoFilter ref="K1:K64" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://doi.org/10.1016/j.vaccine.2022.10.087"/>
-    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://doi.org/10.1016/j.vaccine.2022.10.087" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
